--- a/수강계획/학점.xlsx
+++ b/수강계획/학점.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\수업\수강계획\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\DongGyu1\수강계획\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50DB49AD-B288-4607-BF84-A7892DCD38B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3525" windowWidth="28800" windowHeight="9660" activeTab="2" xr2:uid="{E7C6E456-3A9E-43D9-84E5-7B694637A662}"/>
+    <workbookView xWindow="0" yWindow="3528" windowWidth="28800" windowHeight="9660" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="교양" sheetId="4" r:id="rId1"/>
     <sheet name="산업공학" sheetId="2" r:id="rId2"/>
     <sheet name="컴퓨터공학" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="83">
   <si>
     <t>공학윤리</t>
   </si>
@@ -247,78 +246,114 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>글로벌영어1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글로벌영어2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공작발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플랫폼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>복수전공선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>운영체제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컴퓨터구조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로그래밍언어론</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알고리즘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전공선택 합</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>총 학점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소프트웨어설계실험</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컴퓨터프로그래밍입문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공학수학</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자료구조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이산수학2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>멀티미디어처리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>임베디드시스템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컴퓨터네트워크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>교양 합</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>글로벌영어1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>글로벌영어2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공작발</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>플랫폼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>복수전공선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>운영체제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>컴퓨터구조</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>프로그래밍언어론</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>알고리즘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전공선택 합</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>총 학점</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>소프트웨어설계실험</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>컴퓨터프로그래밍입문</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>성적</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>종프</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공학수학</t>
+    <t>총 평점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>교양 평점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일선 합</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일선 평점</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.0"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
@@ -416,7 +451,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -462,18 +497,6 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -488,6 +511,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -802,31 +831,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3777CB37-C1E0-44D5-81C1-4DF0FE5678DD}">
-  <dimension ref="A1:J17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="16.625" customWidth="1"/>
-    <col min="2" max="2" width="8.125" customWidth="1"/>
+    <col min="1" max="1" width="16.59765625" customWidth="1"/>
+    <col min="2" max="2" width="8.09765625" customWidth="1"/>
     <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.25" customWidth="1"/>
+    <col min="4" max="4" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" s="1"/>
       <c r="B3" s="7" t="s">
         <v>28</v>
@@ -847,7 +876,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -875,7 +904,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -885,10 +914,7 @@
       <c r="C5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
+      <c r="D5" s="1"/>
       <c r="G5" s="2" t="s">
         <v>8</v>
       </c>
@@ -902,7 +928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -917,7 +943,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -932,7 +958,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
@@ -947,7 +973,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
@@ -962,7 +988,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
@@ -977,20 +1003,24 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
+        <v>57</v>
+      </c>
+      <c r="B11" s="1">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2</v>
+      </c>
       <c r="D11" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B12" s="1">
         <v>2</v>
@@ -1003,63 +1033,109 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="B15" s="1">
-        <f>SUM(B4:B13)</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+      <c r="B13" s="2">
+        <v>3</v>
+      </c>
+      <c r="C13" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="D13" s="1">
+        <f>B13*C13</f>
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="16"/>
-      <c r="B17" s="15"/>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A17" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="B17" s="20">
+        <f>SUM(B4:B13)-1</f>
+        <v>24</v>
+      </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
+      <c r="G17" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="H17" s="20">
+        <f>SUM(H4)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A18" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B18" s="10">
+        <f>SUM(D4:D13)</f>
+        <v>88.5</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="H18" s="10">
+        <f>SUM(J4)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A19" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="B19" s="13">
+        <f>B18/B17</f>
+        <v>3.6875</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="H19" s="13">
+        <f>H18/H17</f>
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{302162D5-6ADC-448E-9440-272AEF687109}">
-  <dimension ref="A1:L17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="11.625" customWidth="1"/>
-    <col min="2" max="2" width="18.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.75" customWidth="1"/>
+    <col min="1" max="1" width="11.59765625" customWidth="1"/>
+    <col min="2" max="2" width="18.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.69921875" customWidth="1"/>
     <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.59765625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1" s="7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B3" s="7" t="s">
         <v>46</v>
       </c>
@@ -1085,7 +1161,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4" s="9" t="s">
         <v>39</v>
       </c>
@@ -1119,7 +1195,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5" s="9" t="s">
         <v>39</v>
       </c>
@@ -1153,7 +1229,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6" s="9" t="s">
         <v>39</v>
       </c>
@@ -1187,7 +1263,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A7" s="9" t="s">
         <v>39</v>
       </c>
@@ -1221,7 +1297,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8" s="9" t="s">
         <v>39</v>
       </c>
@@ -1255,7 +1331,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9" s="9" t="s">
         <v>39</v>
       </c>
@@ -1289,7 +1365,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A10" s="9" t="s">
         <v>39</v>
       </c>
@@ -1326,7 +1402,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A11" s="9" t="s">
         <v>39</v>
       </c>
@@ -1360,7 +1436,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A12" s="9" t="s">
         <v>39</v>
       </c>
@@ -1394,7 +1470,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A13" s="9" t="s">
         <v>39</v>
       </c>
@@ -1428,7 +1504,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
       <c r="H14" s="6" t="s">
         <v>38</v>
       </c>
@@ -1446,7 +1522,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A15" s="11" t="s">
         <v>47</v>
       </c>
@@ -1458,7 +1534,7 @@
         <v>38</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J15" s="5">
         <v>3</v>
@@ -1471,7 +1547,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A16" s="12" t="s">
         <v>48</v>
       </c>
@@ -1480,13 +1556,19 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17" s="14" t="s">
         <v>51</v>
       </c>
       <c r="B17" s="13">
         <f>SUM(E4:E13,L4:L15)/(B15+B16)</f>
         <v>3.8278688524590163</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B21" s="21">
+        <f>SUM(E4:E13,L4:L15)</f>
+        <v>233.5</v>
       </c>
     </row>
   </sheetData>
@@ -1496,30 +1578,30 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94559B31-3335-480E-B768-90A40344B320}">
-  <dimension ref="A1:L21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="5.625" style="1" customWidth="1"/>
-    <col min="4" max="7" width="8.75" style="1"/>
-    <col min="8" max="8" width="12.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.09765625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="5.59765625" style="1" customWidth="1"/>
+    <col min="4" max="7" width="8.69921875" style="1"/>
+    <col min="8" max="8" width="12.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.75" style="1"/>
+    <col min="10" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1" s="8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B3" s="7" t="s">
         <v>46</v>
       </c>
@@ -1545,7 +1627,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="33" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4" s="9" t="s">
         <v>40</v>
       </c>
@@ -1579,7 +1661,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5" s="9" t="s">
         <v>40</v>
       </c>
@@ -1593,7 +1675,7 @@
         <v>4</v>
       </c>
       <c r="E5" s="4">
-        <f t="shared" ref="E5:E10" si="0">C5*D5</f>
+        <f t="shared" ref="E5:E7" si="0">C5*D5</f>
         <v>12</v>
       </c>
       <c r="H5" s="6" t="s">
@@ -1613,7 +1695,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6" s="9" t="s">
         <v>40</v>
       </c>
@@ -1647,7 +1729,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A7" s="9" t="s">
         <v>40</v>
       </c>
@@ -1680,12 +1762,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8" s="9" t="s">
         <v>40</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C8" s="1">
         <v>4</v>
@@ -1713,12 +1795,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9" s="9" t="s">
         <v>40</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C9" s="1">
         <v>3</v>
@@ -1734,7 +1816,7 @@
         <v>41</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J9" s="1">
         <v>3</v>
@@ -1747,12 +1829,12 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="H10" s="6" t="s">
         <v>41</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J10" s="1">
         <v>3</v>
@@ -1765,12 +1847,12 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="H11" s="6" t="s">
         <v>41</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J11" s="1">
         <v>2</v>
@@ -1783,12 +1865,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
       <c r="H12" s="6" t="s">
         <v>41</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J12" s="1">
         <v>3</v>
@@ -1801,7 +1883,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
       <c r="H13" s="6" t="s">
         <v>41</v>
       </c>
@@ -1818,7 +1900,25 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="H14" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J14" s="1">
+        <v>3</v>
+      </c>
+      <c r="K14" s="1">
+        <v>4</v>
+      </c>
+      <c r="L14" s="1">
+        <f>J14*K14</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A15" s="11" t="s">
         <v>47</v>
       </c>
@@ -1826,77 +1926,148 @@
         <f>SUM(C4:C13)</f>
         <v>19</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H15" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J15" s="1">
+        <v>3</v>
+      </c>
+      <c r="K15" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="L15" s="1">
+        <f>J15*K15</f>
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A16" s="12" t="s">
         <v>48</v>
       </c>
       <c r="B16" s="10">
-        <f>SUM(J4:J14)</f>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="21" t="s">
+        <f>SUM(J4:J15)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A17" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="16">
+        <f>SUM(J21:J25)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A20" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B17" s="20">
-        <f>SUM(J18:J19)</f>
-        <v>6</v>
-      </c>
-      <c r="H17" s="18"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="H18" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="I18" s="1" t="s">
+      <c r="B20" s="19">
+        <f>SUM(B15:B17)</f>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A21" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" s="13">
+        <f>SUM(E4:E9,L4:L15,L21:L25)/B20</f>
+        <v>3.893939393939394</v>
+      </c>
+      <c r="H21" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="J18" s="1">
-        <v>3</v>
-      </c>
-      <c r="K18" s="1">
+      <c r="I21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J21" s="1">
+        <v>3</v>
+      </c>
+      <c r="K21" s="1">
         <v>4</v>
       </c>
-      <c r="L18" s="1">
+      <c r="L21" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="H19" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="J19" s="1">
-        <v>3</v>
-      </c>
-      <c r="K19" s="1">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="H22" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J22" s="1">
+        <v>3</v>
+      </c>
+      <c r="K22" s="1">
         <v>4.5</v>
       </c>
-      <c r="L19" s="1">
-        <f>J19*K19</f>
+      <c r="L22" s="1">
+        <f>J22*K22</f>
         <v>13.5</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B20" s="23">
-        <f>SUM(B15:B17)</f>
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="B21" s="13">
-        <f>SUM(E4:E9,L4:L13,L18:L19)/B20</f>
-        <v>3.9803921568627452</v>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="H23" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J23" s="1">
+        <v>3</v>
+      </c>
+      <c r="K23" s="1">
+        <v>3</v>
+      </c>
+      <c r="L23" s="1">
+        <f t="shared" ref="L23:L25" si="2">J23*K23</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B24" s="4">
+        <f>SUM(E4:E9,L4:L15,L21:L25)</f>
+        <v>257</v>
+      </c>
+      <c r="H24" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J24" s="1">
+        <v>3</v>
+      </c>
+      <c r="K24" s="1">
+        <v>3</v>
+      </c>
+      <c r="L24" s="1">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="H25" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J25" s="1">
+        <v>3</v>
+      </c>
+      <c r="K25" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="L25" s="1">
+        <f t="shared" si="2"/>
+        <v>10.5</v>
       </c>
     </row>
   </sheetData>
